--- a/medicine/Handicap/Christy_Brown_(peintre)/Christy_Brown_(peintre).xlsx
+++ b/medicine/Handicap/Christy_Brown_(peintre)/Christy_Brown_(peintre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christy Brown est un artiste-peintre et un poète irlandais né à Dublin le 5 juin 1932 et décédé le 6 septembre 1981 (ou 7 septembre suivant les sources).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Dublin, il est issu d'une famille catholique de 13 enfants (13 survivants sur 22 naissances, dont la sienne qui mit la santé de sa mère en danger). Atteint de paralysie cérébrale, il ne pouvait faire aucun mouvement. Les médecins le croyaient mentalement en retard également. Cependant, sa mère ne cessait de lui parler, travaillant avec lui et tentant de l'instruire.
 C'est en observant une de ses sœurs qui s'amusait avec une craie qu'il voulut jouer aussi et prit la craie entre les orteils de son pied gauche. Puis il reproduisit les lettres de l'alphabet que sa mère lui enseignait, toujours avec son pied gauche. C'est ainsi qu'il apprit à écrire à l'âge de 7 ans. Il apprit à épeler les mots ainsi qu'à lire. Plus tard, ses frères lui fabriquèrent une voiturette dans laquelle ils l'emmenèrent à la découverte du monde extérieur, en l'incluant le plus possible dans leurs activités. Mais c'est lorsque ce moyen de transport se brisa, il avait alors 10 ans, qu'il prit conscience de son handicap. Malgré le remplacement de cette voiturette, il ne sortit vraiment de sa dépression qu'en se mettant à peindre.
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>My Left Foot : autobiographie parue en juin 1955 chez Simon &amp; Schuster  (ISBN 9997502663).
 Celui qui regardait passer les jours (Down All the Days) : paru en 1970  (ISBN 2020015730).
@@ -586,7 +602,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le film My Left Foot de Jim Sheridan, sorti en 1989, huit ans après la mort de Brown, est adapté de ses ouvrages autobiographiques. Le rôle de Christy Brown est interprété par Daniel Day-Lewis qui décroche avec cette interprétation son premier Oscar du meilleur acteur. Le film connaît un succès mondial.
 Le groupe musical The Pogues rend hommage à Christy Brown dans une chanson intitulée Down All the Days en 1989 sur leur album Peace and Love.</t>
